--- a/Model Summary/R-NTSK_parameters.xlsx
+++ b/Model Summary/R-NTSK_parameters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,42 +476,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[ 0.68375479 -1.60241279  1.61030194 -1.03609199]
- [-1.60241279  4.99929957 -5.73791233  2.58197379]
- [ 1.61030194 -5.73791233  7.52751865 -3.48085575]
- [-1.03609199  2.58197379 -3.48085575  2.7130032 ]]</t>
+          <t>[[ 0.0148992   0.00507579 -0.03304559]
+ [ 0.00507579  0.2729148  -0.29252285]
+ [-0.03304559 -0.29252285  0.37519298]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[[ 0.31984562]
- [ 0.581353  ]
- [ 0.33993885]
- [-0.22950693]]</t>
+          <t>[[-19.0351492 ]
+ [ 35.78923483]
+ [  5.29370902]]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[[0.71894627]
- [0.43369708]
- [0.27777403]]</t>
+          <t>[[0.71303478]
+ [0.28612719]]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[[0.16482675]
- [0.18786119]
- [0.14156671]]</t>
+          <t>[[0.13799321]
+ [0.11250462]]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.695630305697367e-05</v>
+        <v>0.8683666940450154</v>
       </c>
       <c r="H2" t="n">
-        <v>4.493612880067139e-06</v>
+        <v>0.06753675923243445</v>
       </c>
     </row>
     <row r="3">
@@ -520,42 +516,38 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[ 0.19282948 -0.36110748  0.36039107 -0.32242247]
- [-0.36110748  0.92679804 -0.99379919  0.60605965]
- [ 0.36039107 -0.99379919  1.21825297 -0.74071765]
- [-0.32242247  0.60605965 -0.74071765  0.69897935]]</t>
+          <t>[[ 0.25797672 -0.39303995 -0.08005928]
+ [-0.39303995  3.02184105 -2.40841077]
+ [-0.08005928 -2.40841077  2.72263856]]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[[ 0.56967194]
- [-0.12202135]
- [ 0.95210163]
- [-0.30007582]]</t>
+          <t>[[-19.01850728]
+ [ 35.72527148]
+ [  5.32211445]]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[[0.67572473]
- [0.49601919]
- [0.37400401]]</t>
+          <t>[[0.56136326]
+ [0.14837215]]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[[0.2181071 ]
- [0.30612344]
- [0.16628961]]</t>
+          <t>[[0.03681133]
+ [0.00547789]]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005826599734948883</v>
+        <v>1.545401652547147e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001544115101504625</v>
+        <v>1.201927941746606e-07</v>
       </c>
     </row>
     <row r="4">
@@ -564,42 +556,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[ 0.71749633 -1.36048233  1.1060505  -0.79571121]
- [-1.36048233  3.27232656 -3.26363246  1.93338379]
- [ 1.1060505  -3.26363246  4.27331049 -2.65724324]
- [-0.79571121  1.93338379 -2.65724324  2.04168944]]</t>
+          <t>[[ 0.0208867   0.0069164  -0.04584445]
+ [ 0.0069164   0.31614195 -0.34121975]
+ [-0.04584445 -0.34121975  0.45094419]]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[[0.20579291]
- [0.34432546]
- [0.73735524]
- [0.05827932]]</t>
+          <t>[[-19.03394578]
+ [ 35.78570731]
+ [  5.2949688 ]]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[[0.71321242]
- [0.54762216]
- [0.42079221]]</t>
+          <t>[[0.70963442]
+ [0.31360611]]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[[0.12253892]
- [0.20125722]
- [0.19289965]]</t>
+          <t>[[0.11035832]
+ [0.07896471]]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01747320420465829</v>
+        <v>0.9197689752886139</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004630597554565616</v>
+        <v>0.07153454440332312</v>
       </c>
     </row>
     <row r="5">
@@ -608,42 +596,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[[ 0.45409181 -0.78499966  0.77401762 -0.72364138]
- [-0.78499966  1.88944943 -2.09249971  1.3758045 ]
- [ 0.77401762 -2.09249971  2.71274961 -1.79159502]
- [-0.72364138  1.3758045  -1.79159502  1.67481734]]</t>
+          <t>[[ 0.01924236  0.00539355 -0.04134157]
+ [ 0.00539355  0.25963781 -0.2774102 ]
+ [-0.04134157 -0.2774102   0.37233365]]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[[0.22164698]
- [0.30662797]
- [0.75907964]
- [0.05698359]]</t>
+          <t>[[-19.03447877]
+ [ 35.78958268]
+ [  5.29139433]]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[[0.72424724]
- [0.55462578]
- [0.41981173]]</t>
+          <t>[[0.68641501]
+ [0.34567048]]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[[0.19455796]
- [0.19498588]
- [0.15567055]]</t>
+          <t>[[0.14515093]
+ [0.1077139 ]]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005246822971358615</v>
+        <v>0.9999977064714586</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001390467674723031</v>
+        <v>0.07777429143482155</v>
       </c>
     </row>
     <row r="6">
@@ -652,42 +636,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[[ 0.48646057 -0.82756339  0.70927793 -0.60209948]
- [-0.82756339  1.92354852 -1.99981097  1.28205746]
- [ 0.70927793 -1.99981097  2.61595619 -1.69994821]
- [-0.60209948  1.28205746 -1.69994821  1.40580799]]</t>
+          <t>[[ 0.03213754  0.00271947 -0.06150446]
+ [ 0.00271947  0.28924737 -0.30263909]
+ [-0.06150446 -0.30263909  0.43495809]]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[[0.17859041]
- [0.38430979]
- [0.69423173]
- [0.10917278]]</t>
+          <t>[[-19.03361803]
+ [ 35.78685093]
+ [  5.29175592]]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[[0.74007055]
- [0.58687315]
- [0.4681564 ]]</t>
+          <t>[[0.6834145 ]
+ [0.39466793]]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[[0.16449736]
- [0.19327749]
- [0.18189172]]</t>
+          <t>[[0.11106145]
+ [0.08491797]]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03055312929870323</v>
+        <v>0.8479792115258331</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008096926251064156</v>
+        <v>0.06595113358868755</v>
       </c>
     </row>
     <row r="7">
@@ -696,42 +676,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[[ 0.27029462 -0.47192697  0.45398546 -0.41047399]
- [-0.47192697  1.15962252 -1.27166535  0.8251987 ]
- [ 0.45398546 -1.27166535  1.66911602 -1.08213058]
- [-0.41047399  0.8251987  -1.08213058  0.93926788]]</t>
+          <t>[[ 0.02400052  0.00343708 -0.04775746]
+ [ 0.00343708  0.23994226 -0.25125558]
+ [-0.04775746 -0.25125558  0.35393655]]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[[0.26248762]
- [0.2586759 ]
- [0.78870394]
- [0.01191599]]</t>
+          <t>[[-19.03448145]
+ [ 35.79108348]
+ [  5.2889109 ]]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[[0.6951634 ]
- [0.55421893]
- [0.44748196]]</t>
+          <t>[[0.64449808]
+ [0.41201251]]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[[0.19777407]
- [0.19758401]
- [0.19318359]]</t>
+          <t>[[0.16718253]
+ [0.12540619]]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03891696578316629</v>
+        <v>0.8702644898158997</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01031343790617411</v>
+        <v>0.06768435929232791</v>
       </c>
     </row>
     <row r="8">
@@ -740,42 +716,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[[ 0.27422988 -0.45550254  0.4327094  -0.40609172]
- [-0.45550254  1.09690721 -1.18393606  0.77832927]
- [ 0.4327094  -1.18393606  1.53933694 -1.01606137]
- [-0.40609172  0.77832927 -1.01606137  0.90320359]]</t>
+          <t>[[ 0.01397118  0.00242781 -0.03127817]
+ [ 0.00242781  0.23591776 -0.2409277 ]
+ [-0.03127817 -0.2409277   0.31636369]]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[[0.23269608]
- [0.29637676]
- [0.75253097]
- [0.06037121]]</t>
+          <t>[[-19.03428628]
+ [ 35.79462461]
+ [  5.2841673 ]]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[[0.68826181]
- [0.5719612 ]
- [0.49035316]]</t>
+          <t>[[0.44177162]
+ [0.30622694]]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[[0.19243396]
- [0.20581617]
- [0.18211909]]</t>
+          <t>[[0.25229942]
+ [0.18712027]]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>205</v>
+        <v>306</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05525894914986971</v>
+        <v>0.977773365281018</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01464424909159107</v>
+        <v>0.07604580508179654</v>
       </c>
     </row>
     <row r="9">
@@ -784,42 +756,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[[ 0.21335817 -0.30464765  0.27167418 -0.28729748]
- [-0.30464765  0.77374588 -0.82849657  0.51964205]
- [ 0.27167418 -0.82849657  1.13090973 -0.72136597]
- [-0.28729748  0.51964205 -0.72136597  0.65137404]]</t>
+          <t>[[ 0.01675174  0.001473   -0.03742904]
+ [ 0.001473    0.24710018 -0.24848725]
+ [-0.03742904 -0.24848725  0.33973486]]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[[0.22050167]
- [0.31887658]
- [0.7319477 ]
- [0.07738158]]</t>
+          <t>[[-19.03314713]
+ [ 35.79398646]
+ [  5.28187991]]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[[0.66120744]
- [0.60359015]
- [0.57590214]]</t>
+          <t>[[0.41549153]
+ [0.33092998]]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[[0.18882809]
- [0.20540827]
- [0.1875661 ]]</t>
+          <t>[[0.21928667]
+ [0.16375377]]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>255</v>
+        <v>618</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1792232720570353</v>
+        <v>0.9958294481486432</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04749620250459301</v>
+        <v>0.07745010735372183</v>
       </c>
     </row>
     <row r="10">
@@ -828,42 +796,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[[ 0.23427964 -0.31428644  0.23158948 -0.25111501]
- [-0.31428644  0.81199331 -0.8364049   0.49277888]
- [ 0.23158948 -0.8364049   1.16296266 -0.69036528]
- [-0.25111501  0.49277888 -0.69036528  0.5812529 ]]</t>
+          <t>[[ 0.02389695 -0.00127151 -0.05219461]
+ [-0.00127151  0.26362406 -0.25817061]
+ [-0.05219461 -0.25817061  0.38796539]]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[[0.20418804]
- [0.36030422]
- [0.6939831 ]
- [0.09743962]]</t>
+          <t>[[-19.03109217]
+ [ 35.79291943]
+ [  5.27787108]]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[[0.67989746]
- [0.64172699]
- [0.60473949]]</t>
+          <t>[[0.40503064]
+ [0.37064288]]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[[0.17580945]
- [0.20523183]
- [0.20015924]]</t>
+          <t>[[0.17411737]
+ [0.13146774]]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>312</v>
+        <v>1262</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2725146684876756</v>
+        <v>0.9824470175134071</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07221948205389092</v>
+        <v>0.07640929590625994</v>
       </c>
     </row>
     <row r="11">
@@ -872,42 +836,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[[ 0.16756968 -0.21988708  0.19689424 -0.22279241]
- [-0.21988708  0.60250898 -0.64364705  0.38152615]
- [ 0.19689424 -0.64364705  0.91479721 -0.57385334]
- [-0.22279241  0.38152615 -0.57385334  0.52727579]]</t>
+          <t>[[ 0.02273727 -0.00100142 -0.04780243]
+ [-0.00100142  0.24234216 -0.24202958]
+ [-0.04780243 -0.24202958  0.36037541]]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[[0.22831734]
- [0.316528  ]
- [0.73264814]
- [0.06643028]]</t>
+          <t>[[-19.03161384]
+ [ 35.79377522]
+ [  5.27864825]]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[[0.62632022]
- [0.61282447]
- [0.6302695 ]]</t>
+          <t>[[0.41415318]
+ [0.42069078]]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[[0.18229016]
- [0.21289392]
- [0.20659003]]</t>
+          <t>[[0.18725156]
+ [0.14273067]]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>332</v>
+        <v>1582</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3628283338368267</v>
+        <v>0.9737183054272304</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0961536290489878</v>
+        <v>0.07573042495160907</v>
       </c>
     </row>
     <row r="12">
@@ -916,42 +876,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[[ 0.17432566 -0.13843289  0.10498069 -0.20783791]
- [-0.13843289  0.48289506 -0.53544478  0.27791647]
- [ 0.10498069 -0.53544478  0.82033086 -0.46419904]
- [-0.20783791  0.27791647 -0.46419904  0.48584351]]</t>
+          <t>[[ 0.03097193 -0.00487426 -0.05315855]
+ [-0.00487426  0.25527229 -0.25463787]
+ [-0.05315855 -0.25463787  0.37400523]]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[[0.24055608]
- [0.31729724]
- [0.72960325]
- [0.05344326]]</t>
+          <t>[[-19.03256951]
+ [ 35.79384093]
+ [  5.2812233 ]]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[[0.61712969]
- [0.66016774]
- [0.69312446]]</t>
+          <t>[[0.51585609]
+ [0.54220523]]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[[0.20230744]
- [0.20786201]
- [0.1802528 ]]</t>
+          <t>[[0.18389055]
+ [0.13961495]]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>301</v>
+        <v>1153</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5057721934222171</v>
+        <v>0.7330570674310491</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1340353752292228</v>
+        <v>0.05701312476196693</v>
       </c>
     </row>
     <row r="13">
@@ -960,42 +916,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[ 0.31033263 -0.09070779  0.02935154 -0.34569896]
- [-0.09070779  0.56599852 -0.64583784  0.25841668]
- [ 0.02935154 -0.64583784  1.05900956 -0.50910435]
- [-0.34569896  0.25841668 -0.50910435  0.71853253]]</t>
+          <t>[[ 0.02277307 -0.00304741 -0.03848738]
+ [-0.00304741  0.2484222  -0.25218042]
+ [-0.03848738 -0.25218042  0.34139598]]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[[0.23522089]
- [0.33354898]
- [0.72145321]
- [0.05557516]]</t>
+          <t>[[-19.03451896]
+ [ 35.79483834]
+ [  5.28484357]]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[[0.59926215]
- [0.67527677]
- [0.73522808]]</t>
+          <t>[[0.5270307 ]
+ [0.59752067]]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[[0.2043194 ]
- [0.19466585]
- [0.13444666]]</t>
+          <t>[[0.22380949]
+ [0.16729077]]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>237</v>
+        <v>512</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4994420192041639</v>
+        <v>0.7841043296221346</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1323578071706822</v>
+        <v>0.06098329851427297</v>
       </c>
     </row>
     <row r="14">
@@ -1004,42 +956,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[[ 0.41729241 -0.03481247 -0.07548893 -0.41468423]
- [-0.03481247  0.60766914 -0.72088234  0.22965844]
- [-0.07548893 -0.72088234  1.28655089 -0.53802808]
- [-0.41468423  0.22965844 -0.53802808  0.84351239]]</t>
+          <t>[[ 0.01539981  0.00126587 -0.03066334]
+ [ 0.00126587  0.22612727 -0.23537858]
+ [-0.03066334 -0.23537858  0.30995844]]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[[0.24183649]
- [0.32989923]
- [0.73383208]
- [0.03905347]]</t>
+          <t>[[-19.03462212]
+ [ 35.7957782 ]
+ [  5.28418016]]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[[0.5762678 ]
- [0.70044427]
- [0.76941354]]</t>
+          <t>[[0.44209258]
+ [0.58009637]]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[[0.20455828]
- [0.17901123]
- [0.12819618]]</t>
+          <t>[[0.2555003 ]
+ [0.19001988]]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6453918953664519</v>
+        <v>0.9619619246030269</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1710361818826352</v>
+        <v>0.07481607866608943</v>
       </c>
     </row>
     <row r="15">
@@ -1048,42 +996,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[[ 0.48101958 -0.01304351  0.03231602 -0.63385363]
- [-0.01304351  0.58885737 -0.66976856  0.1840095 ]
- [ 0.03231602 -0.66976856  1.23441602 -0.65591592]
- [-0.63385363  0.1840095  -0.65591592  1.27559026]]</t>
+          <t>[[ 0.0147339   0.00362584 -0.03402946]
+ [ 0.00362584  0.23192725 -0.24440342]
+ [-0.03402946 -0.24440342  0.33045514]]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[[0.2338722 ]
- [0.29992427]
- [0.78598412]
- [0.02448358]]</t>
+          <t>[[-19.03337337]
+ [ 35.795386  ]
+ [  5.2809462 ]]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[[0.51166584]
- [0.65541867]
- [0.75540032]]</t>
+          <t>[[0.31829718]
+ [0.53536224]]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[[0.20375791]
- [0.17549147]
- [0.11995928]]</t>
+          <t>[[0.20140338]
+ [0.14949655]]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4613024255794225</v>
+        <v>0.9664216114899219</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1222503817149796</v>
+        <v>0.07516292844924873</v>
       </c>
     </row>
     <row r="16">
@@ -1092,42 +1036,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[[ 0.51202255 -0.01526124  0.15952913 -0.80976282]
- [-0.01526124  0.52571992 -0.5080719   0.10699423]
- [ 0.15952913 -0.5080719   0.98199356 -0.70432655]
- [-0.80976282  0.10699423 -0.70432655  1.6171841 ]]</t>
+          <t>[[ 0.01360384  0.00443458 -0.03225559]
+ [ 0.00443458  0.23101705 -0.24447253]
+ [-0.03225559 -0.24447253  0.32529653]]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[[0.24729617]
- [0.28716583]
- [0.788687  ]
- [0.01283088]]</t>
+          <t>[[-19.03386405]
+ [ 35.79536552]
+ [  5.28208833]]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[[0.44764598]
- [0.61926519]
- [0.73751971]]</t>
+          <t>[[0.28611598]
+ [0.5534744 ]]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[[0.20236318]
- [0.18392428]
- [0.11572477]]</t>
+          <t>[[0.19899388]
+ [0.14831826]]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2842726344963911</v>
+        <v>0.9131610740443584</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07533547657950336</v>
+        <v>0.07102061838747589</v>
       </c>
     </row>
     <row r="17">
@@ -1136,130 +1076,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[[ 0.57817926 -0.04652534  0.20425294 -0.9341727 ]
- [-0.04652534  0.56278947 -0.49260053  0.12032246]
- [ 0.20425294 -0.49260053  0.98208911 -0.77294885]
- [-0.9341727   0.12032246 -0.77294885  1.854813  ]]</t>
+          <t>[[ 0.02615919  0.00844325 -0.06580755]
+ [ 0.00844325  0.42772772 -0.4369874 ]
+ [-0.06580755 -0.4369874   0.59517154]]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[[0.24586094]
- [0.29211185]
- [0.77901763]
- [0.01785963]]</t>
+          <t>[[-19.031596  ]
+ [ 35.78147106]
+ [  5.28884651]]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[[0.44207852]
- [0.6091232 ]
- [0.71335886]]</t>
+          <t>[[0.21786195]
+ [0.55954135]]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[[0.18916259]
- [0.17819551]
- [0.11232634]]</t>
+          <t>[[0.06506786]
+ [0.04923715]]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1793139616410505</v>
+        <v>0.06283694115734306</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04752023627430386</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[[ 1.28732133e+00  1.85546325e-01  3.09695376e-03 -1.80231068e+00]
- [ 1.85546325e-01  8.67277714e-01 -8.98700317e-01 -3.81585054e-02]
- [ 3.09695376e-03 -8.98700317e-01  1.80252577e+00 -9.54476354e-01]
- [-1.80231068e+00 -3.81585054e-02 -9.54476354e-01  3.20684801e+00]]</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>[[0.16345532]
- [0.25832056]
- [0.81821948]
- [0.11920482]]</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[[0.43771697]
- [0.63865828]
- [0.76143838]]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[[0.20401129]
- [0.16366439]
- [0.08236276]]</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>13</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.2096878421717361</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.05556965956614429</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[[ 7.56576593  1.8880902  -5.71665858 -6.26323704]
- [ 1.8880902   5.57276575 -3.99883547 -2.07095153]
- [-5.71665858 -3.99883547 11.81267678 -0.27050361]
- [-6.26323704 -2.07095153 -0.27050361  9.76937481]]</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>[[-0.06908099]
- [-0.02322839]
- [ 1.19042247]
- [ 0.2630428 ]]</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[[0.39115296]
- [0.64750342]
- [0.73583034]]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[[0.11644129]
- [0.07512933]
- [0.08178226]]</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.02038131817074364</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.005401280782554384</v>
+        <v>0.004887109783169705</v>
       </c>
     </row>
   </sheetData>
